--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,118 +40,109 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>boost</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>energy</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -509,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +508,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.84</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,31 +687,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>117</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L5">
+        <v>42</v>
+      </c>
+      <c r="M5">
+        <v>42</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5">
-        <v>0.9375</v>
-      </c>
-      <c r="L5">
-        <v>30</v>
-      </c>
-      <c r="M5">
-        <v>30</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7597402597402597</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C6">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8823529411764706</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3090128755364807</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C7">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>161</v>
+        <v>420</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2906976744186047</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.8518518518518519</v>
@@ -874,41 +865,17 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1625</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>67</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.7890625</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -920,21 +887,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8214285714285714</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -946,47 +913,47 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L11">
+        <v>45</v>
+      </c>
+      <c r="M11">
+        <v>45</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>13</v>
-      </c>
-      <c r="M11">
-        <v>13</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.725</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -998,21 +965,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L13">
         <v>26</v>
       </c>
-      <c r="K13">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L13">
-        <v>19</v>
-      </c>
       <c r="M13">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1024,21 +991,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7413793103448276</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1050,21 +1017,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7058823529411765</v>
+        <v>0.71875</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1076,21 +1043,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6923076923076923</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1102,21 +1069,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.68</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1128,21 +1095,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1154,21 +1121,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6551724137931034</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1180,21 +1147,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6301369863013698</v>
+        <v>0.58</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1206,21 +1173,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6060606060606061</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1232,21 +1199,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1258,21 +1225,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5882352941176471</v>
+        <v>0.5143603133159269</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1284,21 +1251,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5486111111111112</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L24">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="M24">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1310,21 +1277,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>65</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5454545454545454</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L25">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1336,21 +1303,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5333333333333333</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1362,21 +1329,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5258215962441315</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L27">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1388,21 +1355,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5193798449612403</v>
+        <v>0.3305439330543933</v>
       </c>
       <c r="L28">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="M28">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1414,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>62</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1440,21 +1407,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4571428571428571</v>
+        <v>0.296875</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1466,59 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31">
-        <v>0.358695652173913</v>
-      </c>
-      <c r="L31">
-        <v>33</v>
-      </c>
-      <c r="M31">
-        <v>33</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="K32">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="L32">
-        <v>12</v>
-      </c>
-      <c r="M32">
-        <v>12</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,36 +43,30 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -85,39 +79,42 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>free</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -133,16 +130,16 @@
     <t>care</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -500,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,7 +505,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>23</v>
@@ -569,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +584,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -611,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6111111111111112</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>118</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5993150684931506</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C5">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2533333333333334</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,110 +734,62 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>421</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L7">
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <v>97</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K6">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L6">
-        <v>30</v>
-      </c>
-      <c r="M6">
-        <v>30</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.186046511627907</v>
-      </c>
-      <c r="C7">
-        <v>96</v>
-      </c>
-      <c r="D7">
-        <v>96</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>420</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L7">
-        <v>96</v>
-      </c>
-      <c r="M7">
-        <v>96</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.164021164021164</v>
-      </c>
-      <c r="C8">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>31</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>158</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="K8">
         <v>0.8518518518518519</v>
@@ -866,16 +815,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7890625</v>
+        <v>0.8046875</v>
       </c>
       <c r="L9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,12 +836,12 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10">
         <v>0.7804878048780488</v>
@@ -918,16 +867,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7758620689655172</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -939,21 +888,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.725</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L12">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M12">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -965,21 +914,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7222222222222222</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -991,21 +940,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7222222222222222</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1017,21 +966,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.71875</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L15">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1043,21 +992,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7075471698113207</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L16">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1069,21 +1018,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6971830985915493</v>
+        <v>0.6875</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1095,21 +1044,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6470588235294118</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1121,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6063829787234043</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L19">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1147,21 +1096,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1173,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5714285714285714</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1199,21 +1148,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5416666666666666</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1225,21 +1174,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5143603133159269</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L23">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1251,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>186</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4470588235294118</v>
+        <v>0.4908616187989556</v>
       </c>
       <c r="L24">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="M24">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1277,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4101694915254237</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L25">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="M25">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1303,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4044943820224719</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1329,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>53</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3461538461538461</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1355,21 +1304,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.3305439330543933</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L28">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1381,21 +1330,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>160</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.3150684931506849</v>
+        <v>0.328125</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1407,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.296875</v>
+        <v>0.3179916317991632</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1433,7 +1382,33 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="L31">
+        <v>20</v>
+      </c>
+      <c r="M31">
+        <v>20</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
